--- a/Proyecto/PobladaExcel/Jugadores.xlsx
+++ b/Proyecto/PobladaExcel/Jugadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateo\Desktop\MBDA\MBDA-\Proyecto\PobladaExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69224391-C079-452E-B27B-52AF3E2A80AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0B0EFC-E146-4D1F-8919-AD324A04C310}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,8 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,22 +441,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F601"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A561" workbookViewId="0">
+      <selection activeCell="J571" sqref="J571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -475,7 +476,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>8078421943</v>
       </c>
       <c r="B2">
@@ -495,7 +496,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>4727151904</v>
       </c>
       <c r="B3">
@@ -515,7 +516,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2288338297</v>
       </c>
       <c r="B4">
@@ -535,7 +536,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1554783540</v>
       </c>
       <c r="B5">
@@ -555,7 +556,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>2593333937</v>
       </c>
       <c r="B6">
@@ -575,7 +576,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>1894232270</v>
       </c>
       <c r="B7">
@@ -595,7 +596,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>396657628</v>
       </c>
       <c r="B8">
@@ -615,7 +616,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>6727920904</v>
       </c>
       <c r="B9">
@@ -635,7 +636,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>6763940351</v>
       </c>
       <c r="B10">
@@ -655,7 +656,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>7250170006</v>
       </c>
       <c r="B11">
@@ -675,7 +676,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>216630464</v>
       </c>
       <c r="B12">
@@ -695,7 +696,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>3277432324</v>
       </c>
       <c r="B13">
@@ -715,7 +716,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>5429962778</v>
       </c>
       <c r="B14">
@@ -735,7 +736,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>6971009163</v>
       </c>
       <c r="B15">
@@ -755,7 +756,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>7269130018</v>
       </c>
       <c r="B16">
@@ -775,7 +776,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>3267721851</v>
       </c>
       <c r="B17">
@@ -795,7 +796,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>1743859370</v>
       </c>
       <c r="B18">
@@ -815,7 +816,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>6993479441</v>
       </c>
       <c r="B19">
@@ -835,7 +836,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>5890863659</v>
       </c>
       <c r="B20">
@@ -855,7 +856,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>4208645920</v>
       </c>
       <c r="B21">
@@ -875,7 +876,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>5552430554</v>
       </c>
       <c r="B22">
@@ -895,7 +896,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>9882745630</v>
       </c>
       <c r="B23">
@@ -915,7 +916,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>116780096</v>
       </c>
       <c r="B24">
@@ -935,7 +936,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>3058989027</v>
       </c>
       <c r="B25">
@@ -955,7 +956,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>7641147947</v>
       </c>
       <c r="B26">
@@ -975,7 +976,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>9494346583</v>
       </c>
       <c r="B27">
@@ -995,7 +996,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>9965709297</v>
       </c>
       <c r="B28">
@@ -1015,7 +1016,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>8810383827</v>
       </c>
       <c r="B29">
@@ -1035,7 +1036,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>6412407705</v>
       </c>
       <c r="B30">
@@ -1055,7 +1056,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>3643796097</v>
       </c>
       <c r="B31">
@@ -1075,7 +1076,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>5783944315</v>
       </c>
       <c r="B32">
@@ -1095,7 +1096,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>1259455490</v>
       </c>
       <c r="B33">
@@ -1115,7 +1116,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>6809846236</v>
       </c>
       <c r="B34">
@@ -1135,7 +1136,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>9606300908</v>
       </c>
       <c r="B35">
@@ -1155,7 +1156,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>9301486272</v>
       </c>
       <c r="B36">
@@ -1175,7 +1176,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>3703564460</v>
       </c>
       <c r="B37">
@@ -1195,7 +1196,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>8580866230</v>
       </c>
       <c r="B38">
@@ -1215,7 +1216,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>190709149</v>
       </c>
       <c r="B39">
@@ -1235,7 +1236,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>3053001940</v>
       </c>
       <c r="B40">
@@ -1255,7 +1256,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>2442495015</v>
       </c>
       <c r="B41">
@@ -1275,7 +1276,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>7947228069</v>
       </c>
       <c r="B42">
@@ -1295,7 +1296,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>8795840143</v>
       </c>
       <c r="B43">
@@ -1315,7 +1316,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>9670270335</v>
       </c>
       <c r="B44">
@@ -1335,7 +1336,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>9312243650</v>
       </c>
       <c r="B45">
@@ -1355,7 +1356,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>3695462724</v>
       </c>
       <c r="B46">
@@ -1375,7 +1376,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>809619660</v>
       </c>
       <c r="B47">
@@ -1395,7 +1396,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>7933126582</v>
       </c>
       <c r="B48">
@@ -1415,7 +1416,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>252183516</v>
       </c>
       <c r="B49">
@@ -1435,7 +1436,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>6603438716</v>
       </c>
       <c r="B50">
@@ -1455,7 +1456,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>4334923046</v>
       </c>
       <c r="B51">
@@ -1475,7 +1476,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>8497242063</v>
       </c>
       <c r="B52">
@@ -1495,7 +1496,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>4855075914</v>
       </c>
       <c r="B53">
@@ -1515,7 +1516,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>5051413244</v>
       </c>
       <c r="B54">
@@ -1535,7 +1536,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>6762753916</v>
       </c>
       <c r="B55">
@@ -1555,7 +1556,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>5035453426</v>
       </c>
       <c r="B56">
@@ -1575,7 +1576,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>2738287275</v>
       </c>
       <c r="B57">
@@ -1595,7 +1596,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>2081775156</v>
       </c>
       <c r="B58">
@@ -1615,7 +1616,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>6225833414</v>
       </c>
       <c r="B59">
@@ -1635,7 +1636,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>5841699658</v>
       </c>
       <c r="B60">
@@ -1655,7 +1656,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>9235975154</v>
       </c>
       <c r="B61">
@@ -1675,7 +1676,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>3493024293</v>
       </c>
       <c r="B62">
@@ -1695,7 +1696,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>2837338803</v>
       </c>
       <c r="B63">
@@ -1715,7 +1716,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>8446216697</v>
       </c>
       <c r="B64">
@@ -1735,7 +1736,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>4701931127</v>
       </c>
       <c r="B65">
@@ -1755,7 +1756,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>3961805645</v>
       </c>
       <c r="B66">
@@ -1775,7 +1776,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>6500794590</v>
       </c>
       <c r="B67">
@@ -1795,7 +1796,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>5438037013</v>
       </c>
       <c r="B68">
@@ -1815,7 +1816,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>711740407</v>
       </c>
       <c r="B69">
@@ -1835,7 +1836,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>6829252709</v>
       </c>
       <c r="B70">
@@ -1855,7 +1856,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>2654125141</v>
       </c>
       <c r="B71">
@@ -1875,7 +1876,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>1991555828</v>
       </c>
       <c r="B72">
@@ -1895,7 +1896,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>7816703832</v>
       </c>
       <c r="B73">
@@ -1915,7 +1916,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>3423243647</v>
       </c>
       <c r="B74">
@@ -1935,7 +1936,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>331154711</v>
       </c>
       <c r="B75">
@@ -1955,7 +1956,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>3383392721</v>
       </c>
       <c r="B76">
@@ -1975,7 +1976,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>6081283865</v>
       </c>
       <c r="B77">
@@ -1995,7 +1996,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>4665580555</v>
       </c>
       <c r="B78">
@@ -2015,7 +2016,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>8113876307</v>
       </c>
       <c r="B79">
@@ -2035,7 +2036,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>682054291</v>
       </c>
       <c r="B80">
@@ -2055,7 +2056,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>224676561</v>
       </c>
       <c r="B81">
@@ -2075,7 +2076,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>9229614748</v>
       </c>
       <c r="B82">
@@ -2095,7 +2096,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>7785705350</v>
       </c>
       <c r="B83">
@@ -2115,7 +2116,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>3619298027</v>
       </c>
       <c r="B84">
@@ -2135,7 +2136,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>2510688193</v>
       </c>
       <c r="B85">
@@ -2155,7 +2156,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>581228030</v>
       </c>
       <c r="B86">
@@ -2175,7 +2176,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>979579029</v>
       </c>
       <c r="B87">
@@ -2195,7 +2196,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>2773366819</v>
       </c>
       <c r="B88">
@@ -2215,7 +2216,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>3829564993</v>
       </c>
       <c r="B89">
@@ -2235,7 +2236,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>1833509529</v>
       </c>
       <c r="B90">
@@ -2255,7 +2256,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>6188423487</v>
       </c>
       <c r="B91">
@@ -2275,7 +2276,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>6540172698</v>
       </c>
       <c r="B92">
@@ -2295,7 +2296,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>713217454</v>
       </c>
       <c r="B93">
@@ -2315,7 +2316,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>8430370510</v>
       </c>
       <c r="B94">
@@ -2335,7 +2336,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>7206519706</v>
       </c>
       <c r="B95">
@@ -2355,7 +2356,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>7446594805</v>
       </c>
       <c r="B96">
@@ -2375,7 +2376,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>7333255169</v>
       </c>
       <c r="B97">
@@ -2395,7 +2396,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>1051499341</v>
       </c>
       <c r="B98">
@@ -2415,7 +2416,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>4192798673</v>
       </c>
       <c r="B99">
@@ -2435,7 +2436,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>7241835168</v>
       </c>
       <c r="B100">
@@ -2455,7 +2456,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>4078192125</v>
       </c>
       <c r="B101">
@@ -2475,7 +2476,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>758865285</v>
       </c>
       <c r="B102">
@@ -2495,7 +2496,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>9073392748</v>
       </c>
       <c r="B103">
@@ -2515,7 +2516,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>8561544339</v>
       </c>
       <c r="B104">
@@ -2535,7 +2536,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>8425971880</v>
       </c>
       <c r="B105">
@@ -2555,7 +2556,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>991444853</v>
       </c>
       <c r="B106">
@@ -2575,7 +2576,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>103955891</v>
       </c>
       <c r="B107">
@@ -2595,7 +2596,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>4923159094</v>
       </c>
       <c r="B108">
@@ -2615,7 +2616,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>2998216241</v>
       </c>
       <c r="B109">
@@ -2635,7 +2636,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>3406384002</v>
       </c>
       <c r="B110">
@@ -2655,7 +2656,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>3131759457</v>
       </c>
       <c r="B111">
@@ -2675,7 +2676,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>8492710974</v>
       </c>
       <c r="B112">
@@ -2695,7 +2696,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113">
+      <c r="A113" s="1">
         <v>8060806631</v>
       </c>
       <c r="B113">
@@ -2715,7 +2716,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>4897161288</v>
       </c>
       <c r="B114">
@@ -2735,7 +2736,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="A115" s="1">
         <v>7029850645</v>
       </c>
       <c r="B115">
@@ -2755,7 +2756,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="A116" s="1">
         <v>2428544404</v>
       </c>
       <c r="B116">
@@ -2775,7 +2776,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="A117" s="1">
         <v>6021193088</v>
       </c>
       <c r="B117">
@@ -2795,7 +2796,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="A118" s="1">
         <v>8923911129</v>
       </c>
       <c r="B118">
@@ -2815,7 +2816,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="A119" s="1">
         <v>3283636969</v>
       </c>
       <c r="B119">
@@ -2835,7 +2836,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="A120" s="1">
         <v>7279330490</v>
       </c>
       <c r="B120">
@@ -2855,7 +2856,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="A121" s="1">
         <v>9799401992</v>
       </c>
       <c r="B121">
@@ -2875,7 +2876,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="A122" s="1">
         <v>3087466576</v>
       </c>
       <c r="B122">
@@ -2895,7 +2896,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="A123" s="1">
         <v>899505957</v>
       </c>
       <c r="B123">
@@ -2915,7 +2916,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="A124" s="1">
         <v>6933005384</v>
       </c>
       <c r="B124">
@@ -2935,7 +2936,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125">
+      <c r="A125" s="1">
         <v>105698261</v>
       </c>
       <c r="B125">
@@ -2955,7 +2956,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="A126" s="1">
         <v>6578750988</v>
       </c>
       <c r="B126">
@@ -2975,7 +2976,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127">
+      <c r="A127" s="1">
         <v>1788272541</v>
       </c>
       <c r="B127">
@@ -2995,7 +2996,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128">
+      <c r="A128" s="1">
         <v>7682200967</v>
       </c>
       <c r="B128">
@@ -3015,7 +3016,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>7855049172</v>
       </c>
       <c r="B129">
@@ -3035,7 +3036,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="A130" s="1">
         <v>7643464056</v>
       </c>
       <c r="B130">
@@ -3055,7 +3056,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="A131" s="1">
         <v>1524394600</v>
       </c>
       <c r="B131">
@@ -3075,7 +3076,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="A132" s="1">
         <v>8860857893</v>
       </c>
       <c r="B132">
@@ -3095,7 +3096,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="A133" s="1">
         <v>8827784873</v>
       </c>
       <c r="B133">
@@ -3115,7 +3116,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="A134" s="1">
         <v>7631649877</v>
       </c>
       <c r="B134">
@@ -3135,7 +3136,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135">
+      <c r="A135" s="1">
         <v>2781410883</v>
       </c>
       <c r="B135">
@@ -3155,7 +3156,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136">
+      <c r="A136" s="1">
         <v>3342906028</v>
       </c>
       <c r="B136">
@@ -3175,7 +3176,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137">
+      <c r="A137" s="1">
         <v>1656940927</v>
       </c>
       <c r="B137">
@@ -3195,7 +3196,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138">
+      <c r="A138" s="1">
         <v>1505606327</v>
       </c>
       <c r="B138">
@@ -3215,7 +3216,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="A139" s="1">
         <v>3249820368</v>
       </c>
       <c r="B139">
@@ -3235,7 +3236,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140">
+      <c r="A140" s="1">
         <v>3738570887</v>
       </c>
       <c r="B140">
@@ -3255,7 +3256,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141">
+      <c r="A141" s="1">
         <v>627441055</v>
       </c>
       <c r="B141">
@@ -3275,7 +3276,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142">
+      <c r="A142" s="1">
         <v>2843787151</v>
       </c>
       <c r="B142">
@@ -3295,7 +3296,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143">
+      <c r="A143" s="1">
         <v>4341476793</v>
       </c>
       <c r="B143">
@@ -3315,7 +3316,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144">
+      <c r="A144" s="1">
         <v>611034449</v>
       </c>
       <c r="B144">
@@ -3335,7 +3336,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145">
+      <c r="A145" s="1">
         <v>8027224142</v>
       </c>
       <c r="B145">
@@ -3355,7 +3356,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146">
+      <c r="A146" s="1">
         <v>5368509507</v>
       </c>
       <c r="B146">
@@ -3375,7 +3376,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147">
+      <c r="A147" s="1">
         <v>2796088281</v>
       </c>
       <c r="B147">
@@ -3395,7 +3396,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148">
+      <c r="A148" s="1">
         <v>8106880493</v>
       </c>
       <c r="B148">
@@ -3415,7 +3416,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149">
+      <c r="A149" s="1">
         <v>6218897106</v>
       </c>
       <c r="B149">
@@ -3435,7 +3436,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="A150" s="1">
         <v>3996378502</v>
       </c>
       <c r="B150">
@@ -3455,7 +3456,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151">
+      <c r="A151" s="1">
         <v>9329754766</v>
       </c>
       <c r="B151">
@@ -3475,7 +3476,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152">
+      <c r="A152" s="1">
         <v>147678761</v>
       </c>
       <c r="B152">
@@ -3495,7 +3496,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="A153" s="1">
         <v>8790664752</v>
       </c>
       <c r="B153">
@@ -3515,7 +3516,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154">
+      <c r="A154" s="1">
         <v>6612797484</v>
       </c>
       <c r="B154">
@@ -3535,7 +3536,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155">
+      <c r="A155" s="1">
         <v>3791275002</v>
       </c>
       <c r="B155">
@@ -3555,7 +3556,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156">
+      <c r="A156" s="1">
         <v>2602034457</v>
       </c>
       <c r="B156">
@@ -3575,7 +3576,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157">
+      <c r="A157" s="1">
         <v>9952853093</v>
       </c>
       <c r="B157">
@@ -3595,7 +3596,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158">
+      <c r="A158" s="1">
         <v>7954444959</v>
       </c>
       <c r="B158">
@@ -3615,7 +3616,7 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159">
+      <c r="A159" s="1">
         <v>5719702727</v>
       </c>
       <c r="B159">
@@ -3635,7 +3636,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160">
+      <c r="A160" s="1">
         <v>5728631079</v>
       </c>
       <c r="B160">
@@ -3655,7 +3656,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161">
+      <c r="A161" s="1">
         <v>7794120906</v>
       </c>
       <c r="B161">
@@ -3675,7 +3676,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162">
+      <c r="A162" s="1">
         <v>8812104498</v>
       </c>
       <c r="B162">
@@ -3695,7 +3696,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163">
+      <c r="A163" s="1">
         <v>5613276422</v>
       </c>
       <c r="B163">
@@ -3715,7 +3716,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164">
+      <c r="A164" s="1">
         <v>7122898700</v>
       </c>
       <c r="B164">
@@ -3735,7 +3736,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165">
+      <c r="A165" s="1">
         <v>2783570049</v>
       </c>
       <c r="B165">
@@ -3755,7 +3756,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166">
+      <c r="A166" s="1">
         <v>8081056099</v>
       </c>
       <c r="B166">
@@ -3775,7 +3776,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167">
+      <c r="A167" s="1">
         <v>5051600299</v>
       </c>
       <c r="B167">
@@ -3795,7 +3796,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168">
+      <c r="A168" s="1">
         <v>6097168197</v>
       </c>
       <c r="B168">
@@ -3815,7 +3816,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169">
+      <c r="A169" s="1">
         <v>7222824326</v>
       </c>
       <c r="B169">
@@ -3835,7 +3836,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170">
+      <c r="A170" s="1">
         <v>6134491051</v>
       </c>
       <c r="B170">
@@ -3855,7 +3856,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171">
+      <c r="A171" s="1">
         <v>8797435495</v>
       </c>
       <c r="B171">
@@ -3875,7 +3876,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A172">
+      <c r="A172" s="1">
         <v>3414915646</v>
       </c>
       <c r="B172">
@@ -3895,7 +3896,7 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A173">
+      <c r="A173" s="1">
         <v>7784431340</v>
       </c>
       <c r="B173">
@@ -3915,7 +3916,7 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A174">
+      <c r="A174" s="1">
         <v>2156786726</v>
       </c>
       <c r="B174">
@@ -3935,7 +3936,7 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175">
+      <c r="A175" s="1">
         <v>229659966</v>
       </c>
       <c r="B175">
@@ -3955,7 +3956,7 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A176">
+      <c r="A176" s="1">
         <v>9625562080</v>
       </c>
       <c r="B176">
@@ -3975,7 +3976,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177">
+      <c r="A177" s="1">
         <v>1848005205</v>
       </c>
       <c r="B177">
@@ -3995,7 +3996,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178">
+      <c r="A178" s="1">
         <v>653766478</v>
       </c>
       <c r="B178">
@@ -4015,7 +4016,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179">
+      <c r="A179" s="1">
         <v>3455607540</v>
       </c>
       <c r="B179">
@@ -4035,7 +4036,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180">
+      <c r="A180" s="1">
         <v>3519417021</v>
       </c>
       <c r="B180">
@@ -4055,7 +4056,7 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181">
+      <c r="A181" s="1">
         <v>6445412263</v>
       </c>
       <c r="B181">
@@ -4075,7 +4076,7 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182">
+      <c r="A182" s="1">
         <v>1943771678</v>
       </c>
       <c r="B182">
@@ -4095,7 +4096,7 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183">
+      <c r="A183" s="1">
         <v>5033031477</v>
       </c>
       <c r="B183">
@@ -4115,7 +4116,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184">
+      <c r="A184" s="1">
         <v>7144631511</v>
       </c>
       <c r="B184">
@@ -4135,7 +4136,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185">
+      <c r="A185" s="1">
         <v>6359077269</v>
       </c>
       <c r="B185">
@@ -4155,7 +4156,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186">
+      <c r="A186" s="1">
         <v>8450046823</v>
       </c>
       <c r="B186">
@@ -4175,7 +4176,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187">
+      <c r="A187" s="1">
         <v>8397669274</v>
       </c>
       <c r="B187">
@@ -4195,7 +4196,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188">
+      <c r="A188" s="1">
         <v>3168499906</v>
       </c>
       <c r="B188">
@@ -4215,7 +4216,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189">
+      <c r="A189" s="1">
         <v>5060748858</v>
       </c>
       <c r="B189">
@@ -4235,7 +4236,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190">
+      <c r="A190" s="1">
         <v>7578899214</v>
       </c>
       <c r="B190">
@@ -4255,7 +4256,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191">
+      <c r="A191" s="1">
         <v>5186996678</v>
       </c>
       <c r="B191">
@@ -4275,7 +4276,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192">
+      <c r="A192" s="1">
         <v>4535461425</v>
       </c>
       <c r="B192">
@@ -4295,7 +4296,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193">
+      <c r="A193" s="1">
         <v>9613077162</v>
       </c>
       <c r="B193">
@@ -4315,7 +4316,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194">
+      <c r="A194" s="1">
         <v>1967021309</v>
       </c>
       <c r="B194">
@@ -4335,7 +4336,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195">
+      <c r="A195" s="1">
         <v>3959740675</v>
       </c>
       <c r="B195">
@@ -4355,7 +4356,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196">
+      <c r="A196" s="1">
         <v>2373477663</v>
       </c>
       <c r="B196">
@@ -4375,7 +4376,7 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197">
+      <c r="A197" s="1">
         <v>1269683936</v>
       </c>
       <c r="B197">
@@ -4395,7 +4396,7 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198">
+      <c r="A198" s="1">
         <v>2947294696</v>
       </c>
       <c r="B198">
@@ -4415,7 +4416,7 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199">
+      <c r="A199" s="1">
         <v>642803694</v>
       </c>
       <c r="B199">
@@ -4435,7 +4436,7 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200">
+      <c r="A200" s="1">
         <v>5509134254</v>
       </c>
       <c r="B200">
@@ -4455,7 +4456,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201">
+      <c r="A201" s="1">
         <v>2989446889</v>
       </c>
       <c r="B201">
@@ -4475,7 +4476,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202">
+      <c r="A202" s="1">
         <v>8535471731</v>
       </c>
       <c r="B202">
@@ -4495,7 +4496,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203">
+      <c r="A203" s="1">
         <v>8698028152</v>
       </c>
       <c r="B203">
@@ -4515,7 +4516,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204">
+      <c r="A204" s="1">
         <v>1694292044</v>
       </c>
       <c r="B204">
@@ -4535,7 +4536,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205">
+      <c r="A205" s="1">
         <v>4239040935</v>
       </c>
       <c r="B205">
@@ -4555,7 +4556,7 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206">
+      <c r="A206" s="1">
         <v>9296605947</v>
       </c>
       <c r="B206">
@@ -4575,7 +4576,7 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207">
+      <c r="A207" s="1">
         <v>5409155971</v>
       </c>
       <c r="B207">
@@ -4595,7 +4596,7 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208">
+      <c r="A208" s="1">
         <v>6341235027</v>
       </c>
       <c r="B208">
@@ -4615,7 +4616,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209">
+      <c r="A209" s="1">
         <v>9147088356</v>
       </c>
       <c r="B209">
@@ -4635,7 +4636,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210">
+      <c r="A210" s="1">
         <v>488645969</v>
       </c>
       <c r="B210">
@@ -4655,7 +4656,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211">
+      <c r="A211" s="1">
         <v>9042743932</v>
       </c>
       <c r="B211">
@@ -4675,7 +4676,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212">
+      <c r="A212" s="1">
         <v>5876024377</v>
       </c>
       <c r="B212">
@@ -4695,7 +4696,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213">
+      <c r="A213" s="1">
         <v>7807165177</v>
       </c>
       <c r="B213">
@@ -4715,7 +4716,7 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214">
+      <c r="A214" s="1">
         <v>6958908475</v>
       </c>
       <c r="B214">
@@ -4735,7 +4736,7 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215">
+      <c r="A215" s="1">
         <v>7998390036</v>
       </c>
       <c r="B215">
@@ -4755,7 +4756,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216">
+      <c r="A216" s="1">
         <v>6581484250</v>
       </c>
       <c r="B216">
@@ -4775,7 +4776,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217">
+      <c r="A217" s="1">
         <v>4255225152</v>
       </c>
       <c r="B217">
@@ -4795,7 +4796,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218">
+      <c r="A218" s="1">
         <v>3837682823</v>
       </c>
       <c r="B218">
@@ -4815,7 +4816,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219">
+      <c r="A219" s="1">
         <v>793464989</v>
       </c>
       <c r="B219">
@@ -4835,7 +4836,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220">
+      <c r="A220" s="1">
         <v>5444915873</v>
       </c>
       <c r="B220">
@@ -4855,7 +4856,7 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221">
+      <c r="A221" s="1">
         <v>5810221490</v>
       </c>
       <c r="B221">
@@ -4875,7 +4876,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222">
+      <c r="A222" s="1">
         <v>3566092870</v>
       </c>
       <c r="B222">
@@ -4895,7 +4896,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223">
+      <c r="A223" s="1">
         <v>6727180407</v>
       </c>
       <c r="B223">
@@ -4915,7 +4916,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224">
+      <c r="A224" s="1">
         <v>6179431289</v>
       </c>
       <c r="B224">
@@ -4935,7 +4936,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A225">
+      <c r="A225" s="1">
         <v>7676136495</v>
       </c>
       <c r="B225">
@@ -4955,7 +4956,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226">
+      <c r="A226" s="1">
         <v>5158523342</v>
       </c>
       <c r="B226">
@@ -4975,7 +4976,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227">
+      <c r="A227" s="1">
         <v>7013104280</v>
       </c>
       <c r="B227">
@@ -4995,7 +4996,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228">
+      <c r="A228" s="1">
         <v>8088917591</v>
       </c>
       <c r="B228">
@@ -5015,7 +5016,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229">
+      <c r="A229" s="1">
         <v>5229561249</v>
       </c>
       <c r="B229">
@@ -5035,7 +5036,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230">
+      <c r="A230" s="1">
         <v>6211866257</v>
       </c>
       <c r="B230">
@@ -5055,7 +5056,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A231">
+      <c r="A231" s="1">
         <v>3946703407</v>
       </c>
       <c r="B231">
@@ -5075,7 +5076,7 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232">
+      <c r="A232" s="1">
         <v>7645855336</v>
       </c>
       <c r="B232">
@@ -5095,7 +5096,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233">
+      <c r="A233" s="1">
         <v>1448925090</v>
       </c>
       <c r="B233">
@@ -5115,7 +5116,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234">
+      <c r="A234" s="1">
         <v>5226273947</v>
       </c>
       <c r="B234">
@@ -5135,7 +5136,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A235">
+      <c r="A235" s="1">
         <v>9203970146</v>
       </c>
       <c r="B235">
@@ -5155,7 +5156,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A236">
+      <c r="A236" s="1">
         <v>1555287961</v>
       </c>
       <c r="B236">
@@ -5175,7 +5176,7 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A237">
+      <c r="A237" s="1">
         <v>7522804744</v>
       </c>
       <c r="B237">
@@ -5195,7 +5196,7 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A238">
+      <c r="A238" s="1">
         <v>3675088285</v>
       </c>
       <c r="B238">
@@ -5215,7 +5216,7 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239">
+      <c r="A239" s="1">
         <v>7697463748</v>
       </c>
       <c r="B239">
@@ -5235,7 +5236,7 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240">
+      <c r="A240" s="1">
         <v>6055768705</v>
       </c>
       <c r="B240">
@@ -5255,7 +5256,7 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A241">
+      <c r="A241" s="1">
         <v>5380700514</v>
       </c>
       <c r="B241">
@@ -5275,7 +5276,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A242">
+      <c r="A242" s="1">
         <v>799978951</v>
       </c>
       <c r="B242">
@@ -5295,7 +5296,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A243">
+      <c r="A243" s="1">
         <v>4460798297</v>
       </c>
       <c r="B243">
@@ -5315,7 +5316,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A244">
+      <c r="A244" s="1">
         <v>4558759086</v>
       </c>
       <c r="B244">
@@ -5335,7 +5336,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A245">
+      <c r="A245" s="1">
         <v>1995124039</v>
       </c>
       <c r="B245">
@@ -5355,7 +5356,7 @@
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A246">
+      <c r="A246" s="1">
         <v>3596338645</v>
       </c>
       <c r="B246">
@@ -5375,7 +5376,7 @@
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A247">
+      <c r="A247" s="1">
         <v>4233097023</v>
       </c>
       <c r="B247">
@@ -5395,7 +5396,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A248">
+      <c r="A248" s="1">
         <v>7139201531</v>
       </c>
       <c r="B248">
@@ -5415,7 +5416,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A249">
+      <c r="A249" s="1">
         <v>248910412</v>
       </c>
       <c r="B249">
@@ -5435,7 +5436,7 @@
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A250">
+      <c r="A250" s="1">
         <v>7177791311</v>
       </c>
       <c r="B250">
@@ -5455,7 +5456,7 @@
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A251">
+      <c r="A251" s="1">
         <v>7248849444</v>
       </c>
       <c r="B251">
@@ -5475,7 +5476,7 @@
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A252">
+      <c r="A252" s="1">
         <v>3014498281</v>
       </c>
       <c r="B252">
@@ -5495,7 +5496,7 @@
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A253">
+      <c r="A253" s="1">
         <v>319297017</v>
       </c>
       <c r="B253">
@@ -5515,7 +5516,7 @@
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A254">
+      <c r="A254" s="1">
         <v>434110053</v>
       </c>
       <c r="B254">
@@ -5535,7 +5536,7 @@
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A255">
+      <c r="A255" s="1">
         <v>7763615294</v>
       </c>
       <c r="B255">
@@ -5555,7 +5556,7 @@
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A256">
+      <c r="A256" s="1">
         <v>7945509195</v>
       </c>
       <c r="B256">
@@ -5575,7 +5576,7 @@
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A257">
+      <c r="A257" s="1">
         <v>8580166468</v>
       </c>
       <c r="B257">
@@ -5595,7 +5596,7 @@
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A258">
+      <c r="A258" s="1">
         <v>5623378995</v>
       </c>
       <c r="B258">
@@ -5615,7 +5616,7 @@
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A259">
+      <c r="A259" s="1">
         <v>6681559150</v>
       </c>
       <c r="B259">
@@ -5635,7 +5636,7 @@
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A260">
+      <c r="A260" s="1">
         <v>6409856726</v>
       </c>
       <c r="B260">
@@ -5655,7 +5656,7 @@
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261">
+      <c r="A261" s="1">
         <v>5539907723</v>
       </c>
       <c r="B261">
@@ -5675,7 +5676,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262">
+      <c r="A262" s="1">
         <v>9750673474</v>
       </c>
       <c r="B262">
@@ -5695,7 +5696,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263">
+      <c r="A263" s="1">
         <v>9852392594</v>
       </c>
       <c r="B263">
@@ -5715,7 +5716,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A264">
+      <c r="A264" s="1">
         <v>9355421649</v>
       </c>
       <c r="B264">
@@ -5735,7 +5736,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A265">
+      <c r="A265" s="1">
         <v>2049154183</v>
       </c>
       <c r="B265">
@@ -5755,7 +5756,7 @@
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A266">
+      <c r="A266" s="1">
         <v>4513132205</v>
       </c>
       <c r="B266">
@@ -5775,7 +5776,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267">
+      <c r="A267" s="1">
         <v>3368147678</v>
       </c>
       <c r="B267">
@@ -5795,7 +5796,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A268">
+      <c r="A268" s="1">
         <v>4247048377</v>
       </c>
       <c r="B268">
@@ -5815,7 +5816,7 @@
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A269">
+      <c r="A269" s="1">
         <v>8571715670</v>
       </c>
       <c r="B269">
@@ -5835,7 +5836,7 @@
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A270">
+      <c r="A270" s="1">
         <v>8836839177</v>
       </c>
       <c r="B270">
@@ -5855,7 +5856,7 @@
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A271">
+      <c r="A271" s="1">
         <v>4268941859</v>
       </c>
       <c r="B271">
@@ -5875,7 +5876,7 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A272">
+      <c r="A272" s="1">
         <v>4329754170</v>
       </c>
       <c r="B272">
@@ -5895,7 +5896,7 @@
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A273">
+      <c r="A273" s="1">
         <v>1696900822</v>
       </c>
       <c r="B273">
@@ -5915,7 +5916,7 @@
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A274">
+      <c r="A274" s="1">
         <v>4187509544</v>
       </c>
       <c r="B274">
@@ -5935,7 +5936,7 @@
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A275">
+      <c r="A275" s="1">
         <v>8882262606</v>
       </c>
       <c r="B275">
@@ -5955,7 +5956,7 @@
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A276">
+      <c r="A276" s="1">
         <v>371326742</v>
       </c>
       <c r="B276">
@@ -5975,7 +5976,7 @@
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A277">
+      <c r="A277" s="1">
         <v>4520197249</v>
       </c>
       <c r="B277">
@@ -5995,7 +5996,7 @@
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A278">
+      <c r="A278" s="1">
         <v>3029510911</v>
       </c>
       <c r="B278">
@@ -6015,7 +6016,7 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A279">
+      <c r="A279" s="1">
         <v>6418225054</v>
       </c>
       <c r="B279">
@@ -6035,7 +6036,7 @@
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A280">
+      <c r="A280" s="1">
         <v>8985976219</v>
       </c>
       <c r="B280">
@@ -6055,7 +6056,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A281">
+      <c r="A281" s="1">
         <v>1181429553</v>
       </c>
       <c r="B281">
@@ -6075,7 +6076,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A282">
+      <c r="A282" s="1">
         <v>4486903988</v>
       </c>
       <c r="B282">
@@ -6095,7 +6096,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A283">
+      <c r="A283" s="1">
         <v>593049603</v>
       </c>
       <c r="B283">
@@ -6115,7 +6116,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A284">
+      <c r="A284" s="1">
         <v>7219101161</v>
       </c>
       <c r="B284">
@@ -6135,7 +6136,7 @@
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A285">
+      <c r="A285" s="1">
         <v>3669716548</v>
       </c>
       <c r="B285">
@@ -6155,7 +6156,7 @@
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A286">
+      <c r="A286" s="1">
         <v>7993074490</v>
       </c>
       <c r="B286">
@@ -6175,7 +6176,7 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A287">
+      <c r="A287" s="1">
         <v>5653260079</v>
       </c>
       <c r="B287">
@@ -6195,7 +6196,7 @@
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A288">
+      <c r="A288" s="1">
         <v>317851338</v>
       </c>
       <c r="B288">
@@ -6215,7 +6216,7 @@
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A289">
+      <c r="A289" s="1">
         <v>304108972</v>
       </c>
       <c r="B289">
@@ -6235,7 +6236,7 @@
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A290">
+      <c r="A290" s="1">
         <v>4564262415</v>
       </c>
       <c r="B290">
@@ -6255,7 +6256,7 @@
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A291">
+      <c r="A291" s="1">
         <v>4593077463</v>
       </c>
       <c r="B291">
@@ -6275,7 +6276,7 @@
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A292">
+      <c r="A292" s="1">
         <v>5322048715</v>
       </c>
       <c r="B292">
@@ -6295,7 +6296,7 @@
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A293">
+      <c r="A293" s="1">
         <v>8287431838</v>
       </c>
       <c r="B293">
@@ -6315,7 +6316,7 @@
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A294">
+      <c r="A294" s="1">
         <v>480321190</v>
       </c>
       <c r="B294">
@@ -6335,7 +6336,7 @@
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A295">
+      <c r="A295" s="1">
         <v>1781193923</v>
       </c>
       <c r="B295">
@@ -6355,7 +6356,7 @@
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A296">
+      <c r="A296" s="1">
         <v>2970789747</v>
       </c>
       <c r="B296">
@@ -6375,7 +6376,7 @@
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A297">
+      <c r="A297" s="1">
         <v>4279275210</v>
       </c>
       <c r="B297">
@@ -6395,7 +6396,7 @@
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A298">
+      <c r="A298" s="1">
         <v>3336992100</v>
       </c>
       <c r="B298">
@@ -6415,7 +6416,7 @@
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A299">
+      <c r="A299" s="1">
         <v>6974165955</v>
       </c>
       <c r="B299">
@@ -6435,7 +6436,7 @@
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300">
+      <c r="A300" s="1">
         <v>7023700022</v>
       </c>
       <c r="B300">
@@ -6455,7 +6456,7 @@
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A301">
+      <c r="A301" s="1">
         <v>6988284650</v>
       </c>
       <c r="B301">
@@ -6475,7 +6476,7 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A302">
+      <c r="A302" s="1">
         <v>7582069659</v>
       </c>
       <c r="B302">
@@ -6495,7 +6496,7 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A303">
+      <c r="A303" s="1">
         <v>8597913327</v>
       </c>
       <c r="B303">
@@ -6515,7 +6516,7 @@
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A304">
+      <c r="A304" s="1">
         <v>6891611059</v>
       </c>
       <c r="B304">
@@ -6535,7 +6536,7 @@
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A305">
+      <c r="A305" s="1">
         <v>7020950151</v>
       </c>
       <c r="B305">
@@ -6555,7 +6556,7 @@
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A306">
+      <c r="A306" s="1">
         <v>4359639120</v>
       </c>
       <c r="B306">
@@ -6575,7 +6576,7 @@
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A307">
+      <c r="A307" s="1">
         <v>5808091049</v>
       </c>
       <c r="B307">
@@ -6595,7 +6596,7 @@
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A308">
+      <c r="A308" s="1">
         <v>3848434383</v>
       </c>
       <c r="B308">
@@ -6615,7 +6616,7 @@
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A309">
+      <c r="A309" s="1">
         <v>2020360307</v>
       </c>
       <c r="B309">
@@ -6635,7 +6636,7 @@
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A310">
+      <c r="A310" s="1">
         <v>4451764485</v>
       </c>
       <c r="B310">
@@ -6655,7 +6656,7 @@
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A311">
+      <c r="A311" s="1">
         <v>5925505539</v>
       </c>
       <c r="B311">
@@ -6675,7 +6676,7 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A312">
+      <c r="A312" s="1">
         <v>7558163961</v>
       </c>
       <c r="B312">
@@ -6695,7 +6696,7 @@
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A313">
+      <c r="A313" s="1">
         <v>7732018489</v>
       </c>
       <c r="B313">
@@ -6715,7 +6716,7 @@
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A314">
+      <c r="A314" s="1">
         <v>9413409560</v>
       </c>
       <c r="B314">
@@ -6735,7 +6736,7 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A315">
+      <c r="A315" s="1">
         <v>5105300751</v>
       </c>
       <c r="B315">
@@ -6755,7 +6756,7 @@
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A316">
+      <c r="A316" s="1">
         <v>9812110706</v>
       </c>
       <c r="B316">
@@ -6775,7 +6776,7 @@
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A317">
+      <c r="A317" s="1">
         <v>5940422660</v>
       </c>
       <c r="B317">
@@ -6795,7 +6796,7 @@
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A318">
+      <c r="A318" s="1">
         <v>3754972420</v>
       </c>
       <c r="B318">
@@ -6815,7 +6816,7 @@
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A319">
+      <c r="A319" s="1">
         <v>356865033</v>
       </c>
       <c r="B319">
@@ -6835,7 +6836,7 @@
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A320">
+      <c r="A320" s="1">
         <v>4040326889</v>
       </c>
       <c r="B320">
@@ -6855,7 +6856,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A321">
+      <c r="A321" s="1">
         <v>303954224</v>
       </c>
       <c r="B321">
@@ -6875,7 +6876,7 @@
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A322">
+      <c r="A322" s="1">
         <v>5820838652</v>
       </c>
       <c r="B322">
@@ -6895,7 +6896,7 @@
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A323">
+      <c r="A323" s="1">
         <v>1716879929</v>
       </c>
       <c r="B323">
@@ -6915,7 +6916,7 @@
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A324">
+      <c r="A324" s="1">
         <v>5087482598</v>
       </c>
       <c r="B324">
@@ -6935,7 +6936,7 @@
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A325">
+      <c r="A325" s="1">
         <v>617459685</v>
       </c>
       <c r="B325">
@@ -6955,7 +6956,7 @@
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A326">
+      <c r="A326" s="1">
         <v>1960419352</v>
       </c>
       <c r="B326">
@@ -6975,7 +6976,7 @@
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A327">
+      <c r="A327" s="1">
         <v>9816205047</v>
       </c>
       <c r="B327">
@@ -6995,7 +6996,7 @@
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A328">
+      <c r="A328" s="1">
         <v>921833059</v>
       </c>
       <c r="B328">
@@ -7015,7 +7016,7 @@
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A329">
+      <c r="A329" s="1">
         <v>7417816047</v>
       </c>
       <c r="B329">
@@ -7035,7 +7036,7 @@
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A330">
+      <c r="A330" s="1">
         <v>1249212010</v>
       </c>
       <c r="B330">
@@ -7055,7 +7056,7 @@
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A331">
+      <c r="A331" s="1">
         <v>5852427654</v>
       </c>
       <c r="B331">
@@ -7075,7 +7076,7 @@
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A332">
+      <c r="A332" s="1">
         <v>3071109543</v>
       </c>
       <c r="B332">
@@ -7095,7 +7096,7 @@
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A333">
+      <c r="A333" s="1">
         <v>7408994560</v>
       </c>
       <c r="B333">
@@ -7115,7 +7116,7 @@
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A334">
+      <c r="A334" s="1">
         <v>6476797807</v>
       </c>
       <c r="B334">
@@ -7135,7 +7136,7 @@
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A335">
+      <c r="A335" s="1">
         <v>138815644</v>
       </c>
       <c r="B335">
@@ -7155,7 +7156,7 @@
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A336">
+      <c r="A336" s="1">
         <v>9329471878</v>
       </c>
       <c r="B336">
@@ -7175,7 +7176,7 @@
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337">
+      <c r="A337" s="1">
         <v>5428282634</v>
       </c>
       <c r="B337">
@@ -7195,7 +7196,7 @@
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338">
+      <c r="A338" s="1">
         <v>234054460</v>
       </c>
       <c r="B338">
@@ -7215,7 +7216,7 @@
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339">
+      <c r="A339" s="1">
         <v>8006430197</v>
       </c>
       <c r="B339">
@@ -7235,7 +7236,7 @@
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340">
+      <c r="A340" s="1">
         <v>912622074</v>
       </c>
       <c r="B340">
@@ -7255,7 +7256,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341">
+      <c r="A341" s="1">
         <v>5222327421</v>
       </c>
       <c r="B341">
@@ -7275,7 +7276,7 @@
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342">
+      <c r="A342" s="1">
         <v>526300656</v>
       </c>
       <c r="B342">
@@ -7295,7 +7296,7 @@
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343">
+      <c r="A343" s="1">
         <v>6524612977</v>
       </c>
       <c r="B343">
@@ -7315,7 +7316,7 @@
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344">
+      <c r="A344" s="1">
         <v>806204795</v>
       </c>
       <c r="B344">
@@ -7335,7 +7336,7 @@
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A345">
+      <c r="A345" s="1">
         <v>8321584892</v>
       </c>
       <c r="B345">
@@ -7355,7 +7356,7 @@
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A346">
+      <c r="A346" s="1">
         <v>1717188468</v>
       </c>
       <c r="B346">
@@ -7375,7 +7376,7 @@
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347">
+      <c r="A347" s="1">
         <v>1079238156</v>
       </c>
       <c r="B347">
@@ -7395,7 +7396,7 @@
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348">
+      <c r="A348" s="1">
         <v>9375790204</v>
       </c>
       <c r="B348">
@@ -7415,7 +7416,7 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A349">
+      <c r="A349" s="1">
         <v>4119307182</v>
       </c>
       <c r="B349">
@@ -7435,7 +7436,7 @@
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A350">
+      <c r="A350" s="1">
         <v>9742861794</v>
       </c>
       <c r="B350">
@@ -7455,7 +7456,7 @@
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A351">
+      <c r="A351" s="1">
         <v>737142851</v>
       </c>
       <c r="B351">
@@ -7475,7 +7476,7 @@
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A352">
+      <c r="A352" s="1">
         <v>2479280229</v>
       </c>
       <c r="B352">
@@ -7495,7 +7496,7 @@
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A353">
+      <c r="A353" s="1">
         <v>1961246806</v>
       </c>
       <c r="B353">
@@ -7515,7 +7516,7 @@
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A354">
+      <c r="A354" s="1">
         <v>2248075375</v>
       </c>
       <c r="B354">
@@ -7535,7 +7536,7 @@
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A355">
+      <c r="A355" s="1">
         <v>2481795745</v>
       </c>
       <c r="B355">
@@ -7555,7 +7556,7 @@
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A356">
+      <c r="A356" s="1">
         <v>2951186556</v>
       </c>
       <c r="B356">
@@ -7575,7 +7576,7 @@
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A357">
+      <c r="A357" s="1">
         <v>4074838356</v>
       </c>
       <c r="B357">
@@ -7595,7 +7596,7 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A358">
+      <c r="A358" s="1">
         <v>821067409</v>
       </c>
       <c r="B358">
@@ -7615,7 +7616,7 @@
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A359">
+      <c r="A359" s="1">
         <v>3503263610</v>
       </c>
       <c r="B359">
@@ -7635,7 +7636,7 @@
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A360">
+      <c r="A360" s="1">
         <v>1295426387</v>
       </c>
       <c r="B360">
@@ -7655,7 +7656,7 @@
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A361">
+      <c r="A361" s="1">
         <v>742358934</v>
       </c>
       <c r="B361">
@@ -7675,7 +7676,7 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A362">
+      <c r="A362" s="1">
         <v>8634681361</v>
       </c>
       <c r="B362">
@@ -7695,7 +7696,7 @@
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A363">
+      <c r="A363" s="1">
         <v>3470748437</v>
       </c>
       <c r="B363">
@@ -7715,7 +7716,7 @@
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A364">
+      <c r="A364" s="1">
         <v>3782783385</v>
       </c>
       <c r="B364">
@@ -7735,7 +7736,7 @@
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A365">
+      <c r="A365" s="1">
         <v>8776393893</v>
       </c>
       <c r="B365">
@@ -7755,7 +7756,7 @@
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A366">
+      <c r="A366" s="1">
         <v>4541480480</v>
       </c>
       <c r="B366">
@@ -7775,7 +7776,7 @@
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A367">
+      <c r="A367" s="1">
         <v>8319602843</v>
       </c>
       <c r="B367">
@@ -7795,7 +7796,7 @@
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A368">
+      <c r="A368" s="1">
         <v>7698629373</v>
       </c>
       <c r="B368">
@@ -7815,7 +7816,7 @@
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A369">
+      <c r="A369" s="1">
         <v>4744987030</v>
       </c>
       <c r="B369">
@@ -7835,7 +7836,7 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A370">
+      <c r="A370" s="1">
         <v>8772811698</v>
       </c>
       <c r="B370">
@@ -7855,7 +7856,7 @@
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A371">
+      <c r="A371" s="1">
         <v>6136618843</v>
       </c>
       <c r="B371">
@@ -7875,7 +7876,7 @@
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A372">
+      <c r="A372" s="1">
         <v>9869619598</v>
       </c>
       <c r="B372">
@@ -7895,7 +7896,7 @@
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A373">
+      <c r="A373" s="1">
         <v>1386110419</v>
       </c>
       <c r="B373">
@@ -7915,7 +7916,7 @@
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A374">
+      <c r="A374" s="1">
         <v>9991648507</v>
       </c>
       <c r="B374">
@@ -7935,7 +7936,7 @@
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A375">
+      <c r="A375" s="1">
         <v>9932232120</v>
       </c>
       <c r="B375">
@@ -7955,7 +7956,7 @@
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A376">
+      <c r="A376" s="1">
         <v>8079609714</v>
       </c>
       <c r="B376">
@@ -7975,7 +7976,7 @@
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A377">
+      <c r="A377" s="1">
         <v>7051534525</v>
       </c>
       <c r="B377">
@@ -7995,7 +7996,7 @@
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A378">
+      <c r="A378" s="1">
         <v>338449380</v>
       </c>
       <c r="B378">
@@ -8015,7 +8016,7 @@
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A379">
+      <c r="A379" s="1">
         <v>9334540860</v>
       </c>
       <c r="B379">
@@ -8035,7 +8036,7 @@
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A380">
+      <c r="A380" s="1">
         <v>6828218981</v>
       </c>
       <c r="B380">
@@ -8055,7 +8056,7 @@
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A381">
+      <c r="A381" s="1">
         <v>8143626445</v>
       </c>
       <c r="B381">
@@ -8075,7 +8076,7 @@
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A382">
+      <c r="A382" s="1">
         <v>7667868058</v>
       </c>
       <c r="B382">
@@ -8095,7 +8096,7 @@
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A383">
+      <c r="A383" s="1">
         <v>5331505097</v>
       </c>
       <c r="B383">
@@ -8115,7 +8116,7 @@
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A384">
+      <c r="A384" s="1">
         <v>8512148490</v>
       </c>
       <c r="B384">
@@ -8135,7 +8136,7 @@
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A385">
+      <c r="A385" s="1">
         <v>3641558627</v>
       </c>
       <c r="B385">
@@ -8155,7 +8156,7 @@
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A386">
+      <c r="A386" s="1">
         <v>7302946036</v>
       </c>
       <c r="B386">
@@ -8175,7 +8176,7 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A387">
+      <c r="A387" s="1">
         <v>8343720650</v>
       </c>
       <c r="B387">
@@ -8195,7 +8196,7 @@
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A388">
+      <c r="A388" s="1">
         <v>9858035759</v>
       </c>
       <c r="B388">
@@ -8215,7 +8216,7 @@
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A389">
+      <c r="A389" s="1">
         <v>2176625725</v>
       </c>
       <c r="B389">
@@ -8235,7 +8236,7 @@
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A390">
+      <c r="A390" s="1">
         <v>3779677098</v>
       </c>
       <c r="B390">
@@ -8255,7 +8256,7 @@
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A391">
+      <c r="A391" s="1">
         <v>6218194798</v>
       </c>
       <c r="B391">
@@ -8275,7 +8276,7 @@
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A392">
+      <c r="A392" s="1">
         <v>3853919560</v>
       </c>
       <c r="B392">
@@ -8295,7 +8296,7 @@
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A393">
+      <c r="A393" s="1">
         <v>8889068670</v>
       </c>
       <c r="B393">
@@ -8315,7 +8316,7 @@
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A394">
+      <c r="A394" s="1">
         <v>1738146740</v>
       </c>
       <c r="B394">
@@ -8335,7 +8336,7 @@
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A395">
+      <c r="A395" s="1">
         <v>4176015575</v>
       </c>
       <c r="B395">
@@ -8355,7 +8356,7 @@
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A396">
+      <c r="A396" s="1">
         <v>8543484877</v>
       </c>
       <c r="B396">
@@ -8375,7 +8376,7 @@
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A397">
+      <c r="A397" s="1">
         <v>2091421843</v>
       </c>
       <c r="B397">
@@ -8395,7 +8396,7 @@
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A398">
+      <c r="A398" s="1">
         <v>6110422313</v>
       </c>
       <c r="B398">
@@ -8415,7 +8416,7 @@
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A399">
+      <c r="A399" s="1">
         <v>6402583151</v>
       </c>
       <c r="B399">
@@ -8435,7 +8436,7 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A400">
+      <c r="A400" s="1">
         <v>7850673877</v>
       </c>
       <c r="B400">
@@ -8455,7 +8456,7 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A401">
+      <c r="A401" s="1">
         <v>9836806935</v>
       </c>
       <c r="B401">
@@ -8475,7 +8476,7 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A402">
+      <c r="A402" s="1">
         <v>7851196010</v>
       </c>
       <c r="B402">
@@ -8495,7 +8496,7 @@
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A403">
+      <c r="A403" s="1">
         <v>1674876067</v>
       </c>
       <c r="B403">
@@ -8515,7 +8516,7 @@
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A404">
+      <c r="A404" s="1">
         <v>7868037732</v>
       </c>
       <c r="B404">
@@ -8535,7 +8536,7 @@
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A405">
+      <c r="A405" s="1">
         <v>1865281811</v>
       </c>
       <c r="B405">
@@ -8555,7 +8556,7 @@
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A406">
+      <c r="A406" s="1">
         <v>6952912893</v>
       </c>
       <c r="B406">
@@ -8575,7 +8576,7 @@
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A407">
+      <c r="A407" s="1">
         <v>8009543229</v>
       </c>
       <c r="B407">
@@ -8595,7 +8596,7 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A408">
+      <c r="A408" s="1">
         <v>5674778514</v>
       </c>
       <c r="B408">
@@ -8615,7 +8616,7 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A409">
+      <c r="A409" s="1">
         <v>8870317832</v>
       </c>
       <c r="B409">
@@ -8635,7 +8636,7 @@
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A410">
+      <c r="A410" s="1">
         <v>6239185459</v>
       </c>
       <c r="B410">
@@ -8655,7 +8656,7 @@
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A411">
+      <c r="A411" s="1">
         <v>3767237690</v>
       </c>
       <c r="B411">
@@ -8675,7 +8676,7 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A412">
+      <c r="A412" s="1">
         <v>8193572550</v>
       </c>
       <c r="B412">
@@ -8695,7 +8696,7 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A413">
+      <c r="A413" s="1">
         <v>885225277</v>
       </c>
       <c r="B413">
@@ -8715,7 +8716,7 @@
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A414">
+      <c r="A414" s="1">
         <v>1728594674</v>
       </c>
       <c r="B414">
@@ -8735,7 +8736,7 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A415">
+      <c r="A415" s="1">
         <v>8892323081</v>
       </c>
       <c r="B415">
@@ -8755,7 +8756,7 @@
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A416">
+      <c r="A416" s="1">
         <v>3437292927</v>
       </c>
       <c r="B416">
@@ -8775,7 +8776,7 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A417">
+      <c r="A417" s="1">
         <v>8162329603</v>
       </c>
       <c r="B417">
@@ -8795,7 +8796,7 @@
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A418">
+      <c r="A418" s="1">
         <v>2165368800</v>
       </c>
       <c r="B418">
@@ -8815,7 +8816,7 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A419">
+      <c r="A419" s="1">
         <v>596110274</v>
       </c>
       <c r="B419">
@@ -8835,7 +8836,7 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A420">
+      <c r="A420" s="1">
         <v>2612802734</v>
       </c>
       <c r="B420">
@@ -8855,7 +8856,7 @@
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A421">
+      <c r="A421" s="1">
         <v>4936513279</v>
       </c>
       <c r="B421">
@@ -8875,7 +8876,7 @@
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A422">
+      <c r="A422" s="1">
         <v>8545024361</v>
       </c>
       <c r="B422">
@@ -8895,7 +8896,7 @@
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A423">
+      <c r="A423" s="1">
         <v>6455049711</v>
       </c>
       <c r="B423">
@@ -8915,7 +8916,7 @@
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A424">
+      <c r="A424" s="1">
         <v>2698621484</v>
       </c>
       <c r="B424">
@@ -8935,7 +8936,7 @@
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A425">
+      <c r="A425" s="1">
         <v>1928310960</v>
       </c>
       <c r="B425">
@@ -8955,7 +8956,7 @@
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A426">
+      <c r="A426" s="1">
         <v>5446513032</v>
       </c>
       <c r="B426">
@@ -8975,7 +8976,7 @@
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A427">
+      <c r="A427" s="1">
         <v>9599056396</v>
       </c>
       <c r="B427">
@@ -8995,7 +8996,7 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A428">
+      <c r="A428" s="1">
         <v>8705497266</v>
       </c>
       <c r="B428">
@@ -9015,7 +9016,7 @@
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A429">
+      <c r="A429" s="1">
         <v>8042968376</v>
       </c>
       <c r="B429">
@@ -9035,7 +9036,7 @@
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A430">
+      <c r="A430" s="1">
         <v>5453208945</v>
       </c>
       <c r="B430">
@@ -9055,7 +9056,7 @@
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A431">
+      <c r="A431" s="1">
         <v>6855713486</v>
       </c>
       <c r="B431">
@@ -9075,7 +9076,7 @@
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A432">
+      <c r="A432" s="1">
         <v>6932944961</v>
       </c>
       <c r="B432">
@@ -9095,7 +9096,7 @@
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A433">
+      <c r="A433" s="1">
         <v>3313450409</v>
       </c>
       <c r="B433">
@@ -9115,7 +9116,7 @@
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A434">
+      <c r="A434" s="1">
         <v>4234674681</v>
       </c>
       <c r="B434">
@@ -9135,7 +9136,7 @@
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A435">
+      <c r="A435" s="1">
         <v>6384769178</v>
       </c>
       <c r="B435">
@@ -9155,7 +9156,7 @@
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A436">
+      <c r="A436" s="1">
         <v>9271372537</v>
       </c>
       <c r="B436">
@@ -9175,7 +9176,7 @@
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A437">
+      <c r="A437" s="1">
         <v>745313479</v>
       </c>
       <c r="B437">
@@ -9195,7 +9196,7 @@
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A438">
+      <c r="A438" s="1">
         <v>2561412389</v>
       </c>
       <c r="B438">
@@ -9215,7 +9216,7 @@
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A439">
+      <c r="A439" s="1">
         <v>2510958321</v>
       </c>
       <c r="B439">
@@ -9235,7 +9236,7 @@
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A440">
+      <c r="A440" s="1">
         <v>884689902</v>
       </c>
       <c r="B440">
@@ -9255,7 +9256,7 @@
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A441">
+      <c r="A441" s="1">
         <v>223552764</v>
       </c>
       <c r="B441">
@@ -9275,7 +9276,7 @@
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A442">
+      <c r="A442" s="1">
         <v>8912663109</v>
       </c>
       <c r="B442">
@@ -9295,7 +9296,7 @@
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A443">
+      <c r="A443" s="1">
         <v>5761558273</v>
       </c>
       <c r="B443">
@@ -9315,7 +9316,7 @@
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A444">
+      <c r="A444" s="1">
         <v>1092935837</v>
       </c>
       <c r="B444">
@@ -9335,7 +9336,7 @@
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A445">
+      <c r="A445" s="1">
         <v>3872990980</v>
       </c>
       <c r="B445">
@@ -9355,7 +9356,7 @@
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A446">
+      <c r="A446" s="1">
         <v>808566401</v>
       </c>
       <c r="B446">
@@ -9375,7 +9376,7 @@
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A447">
+      <c r="A447" s="1">
         <v>8556702571</v>
       </c>
       <c r="B447">
@@ -9395,7 +9396,7 @@
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A448">
+      <c r="A448" s="1">
         <v>5827814255</v>
       </c>
       <c r="B448">
@@ -9415,7 +9416,7 @@
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A449">
+      <c r="A449" s="1">
         <v>4534564856</v>
       </c>
       <c r="B449">
@@ -9435,7 +9436,7 @@
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A450">
+      <c r="A450" s="1">
         <v>3307340626</v>
       </c>
       <c r="B450">
@@ -9455,7 +9456,7 @@
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A451">
+      <c r="A451" s="1">
         <v>4964507687</v>
       </c>
       <c r="B451">
@@ -9475,7 +9476,7 @@
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A452">
+      <c r="A452" s="1">
         <v>4557409478</v>
       </c>
       <c r="B452">
@@ -9495,7 +9496,7 @@
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A453">
+      <c r="A453" s="1">
         <v>4603485809</v>
       </c>
       <c r="B453">
@@ -9515,7 +9516,7 @@
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A454">
+      <c r="A454" s="1">
         <v>3414308815</v>
       </c>
       <c r="B454">
@@ -9535,7 +9536,7 @@
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A455">
+      <c r="A455" s="1">
         <v>5711211189</v>
       </c>
       <c r="B455">
@@ -9555,7 +9556,7 @@
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A456">
+      <c r="A456" s="1">
         <v>147146401</v>
       </c>
       <c r="B456">
@@ -9575,7 +9576,7 @@
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A457">
+      <c r="A457" s="1">
         <v>3347446156</v>
       </c>
       <c r="B457">
@@ -9595,7 +9596,7 @@
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A458">
+      <c r="A458" s="1">
         <v>5407951727</v>
       </c>
       <c r="B458">
@@ -9615,7 +9616,7 @@
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A459">
+      <c r="A459" s="1">
         <v>5837200453</v>
       </c>
       <c r="B459">
@@ -9635,7 +9636,7 @@
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A460">
+      <c r="A460" s="1">
         <v>5315465885</v>
       </c>
       <c r="B460">
@@ -9655,7 +9656,7 @@
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A461">
+      <c r="A461" s="1">
         <v>112070700</v>
       </c>
       <c r="B461">
@@ -9675,7 +9676,7 @@
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A462">
+      <c r="A462" s="1">
         <v>7030224638</v>
       </c>
       <c r="B462">
@@ -9695,7 +9696,7 @@
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A463">
+      <c r="A463" s="1">
         <v>2454077273</v>
       </c>
       <c r="B463">
@@ -9715,7 +9716,7 @@
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A464">
+      <c r="A464" s="1">
         <v>9633888991</v>
       </c>
       <c r="B464">
@@ -9735,7 +9736,7 @@
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A465">
+      <c r="A465" s="1">
         <v>7559278992</v>
       </c>
       <c r="B465">
@@ -9755,7 +9756,7 @@
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A466">
+      <c r="A466" s="1">
         <v>8902006949</v>
       </c>
       <c r="B466">
@@ -9775,7 +9776,7 @@
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A467">
+      <c r="A467" s="1">
         <v>3222060140</v>
       </c>
       <c r="B467">
@@ -9795,7 +9796,7 @@
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A468">
+      <c r="A468" s="1">
         <v>1720219026</v>
       </c>
       <c r="B468">
@@ -9815,7 +9816,7 @@
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A469">
+      <c r="A469" s="1">
         <v>7999520450</v>
       </c>
       <c r="B469">
@@ -9835,7 +9836,7 @@
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A470">
+      <c r="A470" s="1">
         <v>7969700342</v>
       </c>
       <c r="B470">
@@ -9855,7 +9856,7 @@
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A471">
+      <c r="A471" s="1">
         <v>1693322501</v>
       </c>
       <c r="B471">
@@ -9875,7 +9876,7 @@
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A472">
+      <c r="A472" s="1">
         <v>8184672673</v>
       </c>
       <c r="B472">
@@ -9895,7 +9896,7 @@
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A473">
+      <c r="A473" s="1">
         <v>4319083141</v>
       </c>
       <c r="B473">
@@ -9915,7 +9916,7 @@
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A474">
+      <c r="A474" s="1">
         <v>7246034580</v>
       </c>
       <c r="B474">
@@ -9935,7 +9936,7 @@
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A475">
+      <c r="A475" s="1">
         <v>4924646836</v>
       </c>
       <c r="B475">
@@ -9955,7 +9956,7 @@
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A476">
+      <c r="A476" s="1">
         <v>1011491357</v>
       </c>
       <c r="B476">
@@ -9975,7 +9976,7 @@
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A477">
+      <c r="A477" s="1">
         <v>241361892</v>
       </c>
       <c r="B477">
@@ -9995,7 +9996,7 @@
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A478">
+      <c r="A478" s="1">
         <v>5292435318</v>
       </c>
       <c r="B478">
@@ -10015,7 +10016,7 @@
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A479">
+      <c r="A479" s="1">
         <v>234548636</v>
       </c>
       <c r="B479">
@@ -10035,7 +10036,7 @@
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A480">
+      <c r="A480" s="1">
         <v>2472455959</v>
       </c>
       <c r="B480">
@@ -10055,7 +10056,7 @@
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A481">
+      <c r="A481" s="1">
         <v>2594338490</v>
       </c>
       <c r="B481">
@@ -10075,7 +10076,7 @@
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A482">
+      <c r="A482" s="1">
         <v>1381558005</v>
       </c>
       <c r="B482">
@@ -10095,7 +10096,7 @@
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A483">
+      <c r="A483" s="1">
         <v>4288737492</v>
       </c>
       <c r="B483">
@@ -10115,7 +10116,7 @@
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A484">
+      <c r="A484" s="1">
         <v>4327930280</v>
       </c>
       <c r="B484">
@@ -10135,7 +10136,7 @@
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A485">
+      <c r="A485" s="1">
         <v>841880210</v>
       </c>
       <c r="B485">
@@ -10155,7 +10156,7 @@
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A486">
+      <c r="A486" s="1">
         <v>9230929426</v>
       </c>
       <c r="B486">
@@ -10175,7 +10176,7 @@
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A487">
+      <c r="A487" s="1">
         <v>2735636175</v>
       </c>
       <c r="B487">
@@ -10195,7 +10196,7 @@
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A488">
+      <c r="A488" s="1">
         <v>7044894111</v>
       </c>
       <c r="B488">
@@ -10215,7 +10216,7 @@
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A489">
+      <c r="A489" s="1">
         <v>1127113639</v>
       </c>
       <c r="B489">
@@ -10235,7 +10236,7 @@
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A490">
+      <c r="A490" s="1">
         <v>9848740488</v>
       </c>
       <c r="B490">
@@ -10255,7 +10256,7 @@
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A491">
+      <c r="A491" s="1">
         <v>9720793097</v>
       </c>
       <c r="B491">
@@ -10275,7 +10276,7 @@
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A492">
+      <c r="A492" s="1">
         <v>7385426846</v>
       </c>
       <c r="B492">
@@ -10295,7 +10296,7 @@
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A493">
+      <c r="A493" s="1">
         <v>8145819307</v>
       </c>
       <c r="B493">
@@ -10315,7 +10316,7 @@
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A494">
+      <c r="A494" s="1">
         <v>6264314729</v>
       </c>
       <c r="B494">
@@ -10335,7 +10336,7 @@
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A495">
+      <c r="A495" s="1">
         <v>2612910157</v>
       </c>
       <c r="B495">
@@ -10355,7 +10356,7 @@
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A496">
+      <c r="A496" s="1">
         <v>4887360523</v>
       </c>
       <c r="B496">
@@ -10375,7 +10376,7 @@
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A497">
+      <c r="A497" s="1">
         <v>7827937868</v>
       </c>
       <c r="B497">
@@ -10395,7 +10396,7 @@
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A498">
+      <c r="A498" s="1">
         <v>7330764789</v>
       </c>
       <c r="B498">
@@ -10415,7 +10416,7 @@
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A499">
+      <c r="A499" s="1">
         <v>3290231830</v>
       </c>
       <c r="B499">
@@ -10435,7 +10436,7 @@
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A500">
+      <c r="A500" s="1">
         <v>9907714647</v>
       </c>
       <c r="B500">
@@ -10455,7 +10456,7 @@
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A501">
+      <c r="A501" s="1">
         <v>1851978561</v>
       </c>
       <c r="B501">
@@ -10475,7 +10476,7 @@
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A502">
+      <c r="A502" s="1">
         <v>2001930785</v>
       </c>
       <c r="B502">
@@ -10495,7 +10496,7 @@
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A503">
+      <c r="A503" s="1">
         <v>1706862981</v>
       </c>
       <c r="B503">
@@ -10515,7 +10516,7 @@
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A504">
+      <c r="A504" s="1">
         <v>8083137690</v>
       </c>
       <c r="B504">
@@ -10535,7 +10536,7 @@
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A505">
+      <c r="A505" s="1">
         <v>1257538268</v>
       </c>
       <c r="B505">
@@ -10555,7 +10556,7 @@
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A506">
+      <c r="A506" s="1">
         <v>3379753198</v>
       </c>
       <c r="B506">
@@ -10575,7 +10576,7 @@
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A507">
+      <c r="A507" s="1">
         <v>6200720465</v>
       </c>
       <c r="B507">
@@ -10595,7 +10596,7 @@
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A508">
+      <c r="A508" s="1">
         <v>5080788104</v>
       </c>
       <c r="B508">
@@ -10615,7 +10616,7 @@
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A509">
+      <c r="A509" s="1">
         <v>7868127232</v>
       </c>
       <c r="B509">
@@ -10635,7 +10636,7 @@
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A510">
+      <c r="A510" s="1">
         <v>1394206648</v>
       </c>
       <c r="B510">
@@ -10655,7 +10656,7 @@
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A511">
+      <c r="A511" s="1">
         <v>2043085732</v>
       </c>
       <c r="B511">
@@ -10675,7 +10676,7 @@
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A512">
+      <c r="A512" s="1">
         <v>7102709293</v>
       </c>
       <c r="B512">
@@ -10695,7 +10696,7 @@
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A513">
+      <c r="A513" s="1">
         <v>6539566973</v>
       </c>
       <c r="B513">
@@ -10715,7 +10716,7 @@
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A514">
+      <c r="A514" s="1">
         <v>8995465616</v>
       </c>
       <c r="B514">
@@ -10735,7 +10736,7 @@
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A515">
+      <c r="A515" s="1">
         <v>6435460657</v>
       </c>
       <c r="B515">
@@ -10755,7 +10756,7 @@
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A516">
+      <c r="A516" s="1">
         <v>3713228316</v>
       </c>
       <c r="B516">
@@ -10775,7 +10776,7 @@
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A517">
+      <c r="A517" s="1">
         <v>1366694058</v>
       </c>
       <c r="B517">
@@ -10795,7 +10796,7 @@
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A518">
+      <c r="A518" s="1">
         <v>3604063106</v>
       </c>
       <c r="B518">
@@ -10815,7 +10816,7 @@
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A519">
+      <c r="A519" s="1">
         <v>3279925562</v>
       </c>
       <c r="B519">
@@ -10835,7 +10836,7 @@
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A520">
+      <c r="A520" s="1">
         <v>1060010937</v>
       </c>
       <c r="B520">
@@ -10855,7 +10856,7 @@
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A521">
+      <c r="A521" s="1">
         <v>9213247817</v>
       </c>
       <c r="B521">
@@ -10875,7 +10876,7 @@
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A522">
+      <c r="A522" s="1">
         <v>9220173564</v>
       </c>
       <c r="B522">
@@ -10895,7 +10896,7 @@
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A523">
+      <c r="A523" s="1">
         <v>6782786589</v>
       </c>
       <c r="B523">
@@ -10915,7 +10916,7 @@
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A524">
+      <c r="A524" s="1">
         <v>9529144700</v>
       </c>
       <c r="B524">
@@ -10935,7 +10936,7 @@
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A525">
+      <c r="A525" s="1">
         <v>6808986407</v>
       </c>
       <c r="B525">
@@ -10955,7 +10956,7 @@
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A526">
+      <c r="A526" s="1">
         <v>4081200393</v>
       </c>
       <c r="B526">
@@ -10975,7 +10976,7 @@
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A527">
+      <c r="A527" s="1">
         <v>3336841429</v>
       </c>
       <c r="B527">
@@ -10995,7 +10996,7 @@
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A528">
+      <c r="A528" s="1">
         <v>5447027538</v>
       </c>
       <c r="B528">
@@ -11015,7 +11016,7 @@
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A529">
+      <c r="A529" s="1">
         <v>3065615231</v>
       </c>
       <c r="B529">
@@ -11035,7 +11036,7 @@
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A530">
+      <c r="A530" s="1">
         <v>7637424208</v>
       </c>
       <c r="B530">
@@ -11055,7 +11056,7 @@
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A531">
+      <c r="A531" s="1">
         <v>6403268820</v>
       </c>
       <c r="B531">
@@ -11075,7 +11076,7 @@
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A532">
+      <c r="A532" s="1">
         <v>4437371132</v>
       </c>
       <c r="B532">
@@ -11095,7 +11096,7 @@
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A533">
+      <c r="A533" s="1">
         <v>5409061442</v>
       </c>
       <c r="B533">
@@ -11115,7 +11116,7 @@
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A534">
+      <c r="A534" s="1">
         <v>5821070921</v>
       </c>
       <c r="B534">
@@ -11135,7 +11136,7 @@
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A535">
+      <c r="A535" s="1">
         <v>259035923</v>
       </c>
       <c r="B535">
@@ -11155,7 +11156,7 @@
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A536">
+      <c r="A536" s="1">
         <v>8607906427</v>
       </c>
       <c r="B536">
@@ -11175,7 +11176,7 @@
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A537">
+      <c r="A537" s="1">
         <v>376039755</v>
       </c>
       <c r="B537">
@@ -11195,7 +11196,7 @@
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A538">
+      <c r="A538" s="1">
         <v>2870342123</v>
       </c>
       <c r="B538">
@@ -11215,7 +11216,7 @@
       </c>
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A539">
+      <c r="A539" s="1">
         <v>6165337672</v>
       </c>
       <c r="B539">
@@ -11235,7 +11236,7 @@
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A540">
+      <c r="A540" s="1">
         <v>5252801169</v>
       </c>
       <c r="B540">
@@ -11255,7 +11256,7 @@
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A541">
+      <c r="A541" s="1">
         <v>6503669218</v>
       </c>
       <c r="B541">
@@ -11275,7 +11276,7 @@
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A542">
+      <c r="A542" s="1">
         <v>5936579163</v>
       </c>
       <c r="B542">
@@ -11295,7 +11296,7 @@
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A543">
+      <c r="A543" s="1">
         <v>6401197312</v>
       </c>
       <c r="B543">
@@ -11315,7 +11316,7 @@
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A544">
+      <c r="A544" s="1">
         <v>3126268213</v>
       </c>
       <c r="B544">
@@ -11335,7 +11336,7 @@
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A545">
+      <c r="A545" s="1">
         <v>7778975901</v>
       </c>
       <c r="B545">
@@ -11355,7 +11356,7 @@
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A546">
+      <c r="A546" s="1">
         <v>4329286166</v>
       </c>
       <c r="B546">
@@ -11375,7 +11376,7 @@
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A547">
+      <c r="A547" s="1">
         <v>3741076571</v>
       </c>
       <c r="B547">
@@ -11395,7 +11396,7 @@
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A548">
+      <c r="A548" s="1">
         <v>273748957</v>
       </c>
       <c r="B548">
@@ -11415,7 +11416,7 @@
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A549">
+      <c r="A549" s="1">
         <v>9842897074</v>
       </c>
       <c r="B549">
@@ -11435,7 +11436,7 @@
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A550">
+      <c r="A550" s="1">
         <v>7987838350</v>
       </c>
       <c r="B550">
@@ -11455,7 +11456,7 @@
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A551">
+      <c r="A551" s="1">
         <v>8434656359</v>
       </c>
       <c r="B551">
@@ -11475,7 +11476,7 @@
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A552">
+      <c r="A552" s="1">
         <v>5940466205</v>
       </c>
       <c r="B552">
@@ -11495,7 +11496,7 @@
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A553">
+      <c r="A553" s="1">
         <v>2322858791</v>
       </c>
       <c r="B553">
@@ -11515,7 +11516,7 @@
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A554">
+      <c r="A554" s="1">
         <v>5627031531</v>
       </c>
       <c r="B554">
@@ -11535,7 +11536,7 @@
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A555">
+      <c r="A555" s="1">
         <v>4123449182</v>
       </c>
       <c r="B555">
@@ -11555,7 +11556,7 @@
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A556">
+      <c r="A556" s="1">
         <v>1829717402</v>
       </c>
       <c r="B556">
@@ -11575,7 +11576,7 @@
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A557">
+      <c r="A557" s="1">
         <v>896415476</v>
       </c>
       <c r="B557">
@@ -11595,7 +11596,7 @@
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A558">
+      <c r="A558" s="1">
         <v>2239626219</v>
       </c>
       <c r="B558">
@@ -11615,7 +11616,7 @@
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A559">
+      <c r="A559" s="1">
         <v>2825087128</v>
       </c>
       <c r="B559">
@@ -11635,7 +11636,7 @@
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A560">
+      <c r="A560" s="1">
         <v>2093222888</v>
       </c>
       <c r="B560">
@@ -11655,7 +11656,7 @@
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A561">
+      <c r="A561" s="1">
         <v>5866453651</v>
       </c>
       <c r="B561">
@@ -11675,7 +11676,7 @@
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A562">
+      <c r="A562" s="1">
         <v>2471695668</v>
       </c>
       <c r="B562">
@@ -11695,7 +11696,7 @@
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A563">
+      <c r="A563" s="1">
         <v>2807185850</v>
       </c>
       <c r="B563">
@@ -11715,7 +11716,7 @@
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A564">
+      <c r="A564" s="1">
         <v>9419081628</v>
       </c>
       <c r="B564">
@@ -11735,7 +11736,7 @@
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A565">
+      <c r="A565" s="1">
         <v>8926936523</v>
       </c>
       <c r="B565">
@@ -11755,7 +11756,7 @@
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A566">
+      <c r="A566" s="1">
         <v>5881839596</v>
       </c>
       <c r="B566">
@@ -11775,7 +11776,7 @@
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A567">
+      <c r="A567" s="1">
         <v>9225941192</v>
       </c>
       <c r="B567">
@@ -11795,7 +11796,7 @@
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A568">
+      <c r="A568" s="1">
         <v>7571287427</v>
       </c>
       <c r="B568">
@@ -11815,7 +11816,7 @@
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A569">
+      <c r="A569" s="1">
         <v>3864387497</v>
       </c>
       <c r="B569">
@@ -11835,7 +11836,7 @@
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A570">
+      <c r="A570" s="1">
         <v>5033265275</v>
       </c>
       <c r="B570">
@@ -11855,7 +11856,7 @@
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A571">
+      <c r="A571" s="1">
         <v>3183149847</v>
       </c>
       <c r="B571">
@@ -11875,7 +11876,7 @@
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A572">
+      <c r="A572" s="1">
         <v>130334824</v>
       </c>
       <c r="B572">
@@ -11895,7 +11896,7 @@
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A573">
+      <c r="A573" s="1">
         <v>213326163</v>
       </c>
       <c r="B573">
@@ -11915,7 +11916,7 @@
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A574">
+      <c r="A574" s="1">
         <v>2354364696</v>
       </c>
       <c r="B574">
@@ -11935,7 +11936,7 @@
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A575">
+      <c r="A575" s="1">
         <v>2304503510</v>
       </c>
       <c r="B575">
@@ -11955,7 +11956,7 @@
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A576">
+      <c r="A576" s="1">
         <v>8112588362</v>
       </c>
       <c r="B576">
@@ -11975,7 +11976,7 @@
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A577">
+      <c r="A577" s="1">
         <v>7303118934</v>
       </c>
       <c r="B577">
@@ -11995,7 +11996,7 @@
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A578">
+      <c r="A578" s="1">
         <v>1321689685</v>
       </c>
       <c r="B578">
@@ -12015,7 +12016,7 @@
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A579">
+      <c r="A579" s="1">
         <v>6376485643</v>
       </c>
       <c r="B579">
@@ -12035,7 +12036,7 @@
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A580">
+      <c r="A580" s="1">
         <v>8073101304</v>
       </c>
       <c r="B580">
@@ -12055,7 +12056,7 @@
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A581">
+      <c r="A581" s="1">
         <v>5682172515</v>
       </c>
       <c r="B581">
@@ -12075,7 +12076,7 @@
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A582">
+      <c r="A582" s="1">
         <v>6290234338</v>
       </c>
       <c r="B582">
@@ -12095,7 +12096,7 @@
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A583">
+      <c r="A583" s="1">
         <v>6722151465</v>
       </c>
       <c r="B583">
@@ -12115,7 +12116,7 @@
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A584">
+      <c r="A584" s="1">
         <v>6927431051</v>
       </c>
       <c r="B584">
@@ -12135,7 +12136,7 @@
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A585">
+      <c r="A585" s="1">
         <v>4272208438</v>
       </c>
       <c r="B585">
@@ -12155,7 +12156,7 @@
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A586">
+      <c r="A586" s="1">
         <v>9871652329</v>
       </c>
       <c r="B586">
@@ -12175,7 +12176,7 @@
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A587">
+      <c r="A587" s="1">
         <v>6796318752</v>
       </c>
       <c r="B587">
@@ -12195,7 +12196,7 @@
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A588">
+      <c r="A588" s="1">
         <v>2734501084</v>
       </c>
       <c r="B588">
@@ -12215,7 +12216,7 @@
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A589">
+      <c r="A589" s="1">
         <v>1749752830</v>
       </c>
       <c r="B589">
@@ -12235,7 +12236,7 @@
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A590">
+      <c r="A590" s="1">
         <v>5642848243</v>
       </c>
       <c r="B590">
@@ -12255,7 +12256,7 @@
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A591">
+      <c r="A591" s="1">
         <v>8408659521</v>
       </c>
       <c r="B591">
@@ -12275,7 +12276,7 @@
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A592">
+      <c r="A592" s="1">
         <v>3464083276</v>
       </c>
       <c r="B592">
@@ -12295,7 +12296,7 @@
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A593">
+      <c r="A593" s="1">
         <v>3225509018</v>
       </c>
       <c r="B593">
@@ -12315,7 +12316,7 @@
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A594">
+      <c r="A594" s="1">
         <v>4486481144</v>
       </c>
       <c r="B594">
@@ -12335,7 +12336,7 @@
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A595">
+      <c r="A595" s="1">
         <v>976427740</v>
       </c>
       <c r="B595">
@@ -12355,7 +12356,7 @@
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A596">
+      <c r="A596" s="1">
         <v>8968783265</v>
       </c>
       <c r="B596">
@@ -12375,7 +12376,7 @@
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A597">
+      <c r="A597" s="1">
         <v>4681022486</v>
       </c>
       <c r="B597">
@@ -12395,7 +12396,7 @@
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A598">
+      <c r="A598" s="1">
         <v>7666613190</v>
       </c>
       <c r="B598">
@@ -12415,7 +12416,7 @@
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A599">
+      <c r="A599" s="1">
         <v>6568917680</v>
       </c>
       <c r="B599">
@@ -12435,7 +12436,7 @@
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A600">
+      <c r="A600" s="1">
         <v>6575911454</v>
       </c>
       <c r="B600">
@@ -12455,7 +12456,7 @@
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A601">
+      <c r="A601" s="1">
         <v>8348925564</v>
       </c>
       <c r="B601">
